--- a/exposan/bwaise/data/raw/gravel_sand_CFs.xlsx
+++ b/exposan/bwaise/data/raw/gravel_sand_CFs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="105">
   <si>
     <t>-</t>
   </si>
@@ -28,6 +28,15 @@
     <t>ReCiPe Endpoint (I,A) (obsolete)</t>
   </si>
   <si>
+    <t>ReCiPe Midpoint (E) V1.13</t>
+  </si>
+  <si>
+    <t>ReCiPe Midpoint (H) V1.13</t>
+  </si>
+  <si>
+    <t>ReCiPe Midpoint (I) V1.13</t>
+  </si>
+  <si>
     <t>TRACI (obsolete)</t>
   </si>
   <si>
@@ -43,61 +52,151 @@
     <t>total</t>
   </si>
   <si>
+    <t>agricultural land occupation</t>
+  </si>
+  <si>
+    <t>climate change</t>
+  </si>
+  <si>
+    <t>fossil depletion</t>
+  </si>
+  <si>
+    <t>freshwater ecotoxicity</t>
+  </si>
+  <si>
+    <t>freshwater eutrophication</t>
+  </si>
+  <si>
+    <t>human toxicity</t>
+  </si>
+  <si>
+    <t>ionising radiation</t>
+  </si>
+  <si>
+    <t>marine ecotoxicity</t>
+  </si>
+  <si>
+    <t>marine eutrophication</t>
+  </si>
+  <si>
+    <t>metal depletion</t>
+  </si>
+  <si>
+    <t>natural land transformation</t>
+  </si>
+  <si>
+    <t>ozone depletion</t>
+  </si>
+  <si>
+    <t>particulate matter formation</t>
+  </si>
+  <si>
+    <t>photochemical oxidant formation</t>
+  </si>
+  <si>
+    <t>terrestrial acidification</t>
+  </si>
+  <si>
+    <t>terrestrial ecotoxicity</t>
+  </si>
+  <si>
+    <t>urban land occupation</t>
+  </si>
+  <si>
+    <t>water depletion</t>
+  </si>
+  <si>
     <t>environmental impact</t>
   </si>
   <si>
     <t>activity functional unit</t>
   </si>
   <si>
-    <t>agricultural land occupation</t>
-  </si>
-  <si>
     <t>climate change, ecosystems</t>
   </si>
   <si>
-    <t>freshwater ecotoxicity</t>
-  </si>
-  <si>
-    <t>freshwater eutrophication</t>
-  </si>
-  <si>
-    <t>marine ecotoxicity</t>
-  </si>
-  <si>
-    <t>natural land transformation</t>
-  </si>
-  <si>
-    <t>terrestrial acidification</t>
-  </si>
-  <si>
-    <t>terrestrial ecotoxicity</t>
-  </si>
-  <si>
-    <t>urban land occupation</t>
-  </si>
-  <si>
     <t>climate change, human health</t>
   </si>
   <si>
-    <t>human toxicity</t>
-  </si>
-  <si>
-    <t>ionising radiation</t>
-  </si>
-  <si>
-    <t>ozone depletion</t>
-  </si>
-  <si>
-    <t>particulate matter formation</t>
-  </si>
-  <si>
-    <t>photochemical oxidant formation</t>
-  </si>
-  <si>
-    <t>fossil depletion</t>
-  </si>
-  <si>
-    <t>metal depletion</t>
+    <t>ALOP</t>
+  </si>
+  <si>
+    <t>GWP500</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>FETPinf</t>
+  </si>
+  <si>
+    <t>FEP</t>
+  </si>
+  <si>
+    <t>HTPinf</t>
+  </si>
+  <si>
+    <t>IRP_HE</t>
+  </si>
+  <si>
+    <t>METPinf</t>
+  </si>
+  <si>
+    <t>MEP</t>
+  </si>
+  <si>
+    <t>MDP</t>
+  </si>
+  <si>
+    <t>NLTP</t>
+  </si>
+  <si>
+    <t>ODPinf</t>
+  </si>
+  <si>
+    <t>PMFP</t>
+  </si>
+  <si>
+    <t>POFP</t>
+  </si>
+  <si>
+    <t>TAP500</t>
+  </si>
+  <si>
+    <t>TETPinf</t>
+  </si>
+  <si>
+    <t>ULOP</t>
+  </si>
+  <si>
+    <t>WDP</t>
+  </si>
+  <si>
+    <t>GWP100</t>
+  </si>
+  <si>
+    <t>TAP100</t>
+  </si>
+  <si>
+    <t>GWP20</t>
+  </si>
+  <si>
+    <t>FETP100</t>
+  </si>
+  <si>
+    <t>HTP100</t>
+  </si>
+  <si>
+    <t>IRP_I</t>
+  </si>
+  <si>
+    <t>METP100</t>
+  </si>
+  <si>
+    <t>TAP20</t>
+  </si>
+  <si>
+    <t>TETP100</t>
   </si>
   <si>
     <t>acidification</t>
@@ -166,6 +265,51 @@
     <t>points</t>
   </si>
   <si>
+    <t>square meter-year</t>
+  </si>
+  <si>
+    <t>kg CO2-Eq</t>
+  </si>
+  <si>
+    <t>kg oil-Eq</t>
+  </si>
+  <si>
+    <t>kg 1,4-DC.</t>
+  </si>
+  <si>
+    <t>kg P-Eq</t>
+  </si>
+  <si>
+    <t>kg U235-Eq</t>
+  </si>
+  <si>
+    <t>kg N-Eq</t>
+  </si>
+  <si>
+    <t>kg Fe-Eq</t>
+  </si>
+  <si>
+    <t>square meter</t>
+  </si>
+  <si>
+    <t>kg CFC-11.</t>
+  </si>
+  <si>
+    <t>kg PM10-Eq</t>
+  </si>
+  <si>
+    <t>kg NMVOC-.</t>
+  </si>
+  <si>
+    <t>kg SO2-Eq</t>
+  </si>
+  <si>
+    <t>m3 water-.</t>
+  </si>
+  <si>
+    <t>kg 1,4-DB.</t>
+  </si>
+  <si>
     <t>moles of .</t>
   </si>
   <si>
@@ -173,12 +317,6 @@
   </si>
   <si>
     <t>kg N</t>
-  </si>
-  <si>
-    <t>kg CO2-Eq</t>
-  </si>
-  <si>
-    <t>kg CFC-11.</t>
   </si>
   <si>
     <t>kg NOx-Eq</t>
@@ -548,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV16"/>
+  <dimension ref="A1:DX16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:128">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -639,14 +777,74 @@
       <c r="BT1" s="1"/>
       <c r="BU1" s="1"/>
       <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CY1" s="1"/>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1"/>
+      <c r="DH1" s="1"/>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1"/>
+      <c r="DL1" s="1"/>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1"/>
+      <c r="DP1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ1" s="1"/>
+      <c r="DR1" s="1"/>
+      <c r="DS1" s="1"/>
+      <c r="DT1" s="1"/>
+      <c r="DU1" s="1"/>
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
     </row>
-    <row r="2" spans="1:74">
+    <row r="2" spans="1:128">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -658,7 +856,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -667,15 +865,15 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
@@ -687,7 +885,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
@@ -696,15 +894,15 @@
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
@@ -716,7 +914,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
@@ -725,70 +923,232 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
       <c r="BM2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BN2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="DH2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DQ2" s="1"/>
+      <c r="DR2" s="1"/>
+      <c r="DS2" s="1"/>
+      <c r="DT2" s="1"/>
+      <c r="DU2" s="1"/>
+      <c r="DV2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
+      <c r="DW2" s="1"/>
+      <c r="DX2" s="1"/>
     </row>
-    <row r="3" spans="1:74">
+    <row r="3" spans="1:128">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>23</v>
@@ -800,58 +1160,58 @@
         <v>25</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>23</v>
@@ -863,58 +1223,58 @@
         <v>25</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AQ3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AT3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>23</v>
@@ -926,278 +1286,602 @@
         <v>25</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="BR3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="CU3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CX3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="CZ3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="DH3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DT3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BS3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>35</v>
+      <c r="DU3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:74">
+    <row r="5" spans="1:128">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="Q5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AA5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AC5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AD5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AE5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AF5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AG5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AJ5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AM5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AN5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AO5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AP5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AQ5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AR5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AS5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AT5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AU5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AV5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AW5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AX5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AY5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AZ5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BA5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BB5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BC5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BD5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BE5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BF5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BG5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BH5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BI5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BJ5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BK5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BL5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BM5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BN5" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="BO5" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="BP5" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="BQ5" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="BR5" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="BS5" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="BT5" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="BU5" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="BV5" t="s">
-        <v>58</v>
+        <v>89</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>93</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>90</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>91</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>92</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>93</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>94</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>83</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>83</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>86</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>87</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>86</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>88</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>86</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>90</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>91</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>93</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>94</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>95</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>86</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>83</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>96</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>98</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>99</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>100</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>84</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>92</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>101</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>102</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>103</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:74">
+    <row r="6" spans="1:128">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>5.492510552039874E-06</v>
@@ -1389,39 +2073,201 @@
         <v>0.001366191651466152</v>
       </c>
       <c r="BN6">
+        <v>0.000619924708156705</v>
+      </c>
+      <c r="BO6">
+        <v>0.01104853115742133</v>
+      </c>
+      <c r="BP6">
+        <v>0.003771481064167427</v>
+      </c>
+      <c r="BQ6">
+        <v>0.0001877915319169785</v>
+      </c>
+      <c r="BR6">
+        <v>2.15464269522623E-06</v>
+      </c>
+      <c r="BS6">
+        <v>0.1080371481555485</v>
+      </c>
+      <c r="BT6">
+        <v>0.000944530323702536</v>
+      </c>
+      <c r="BU6">
+        <v>0.1323515609185215</v>
+      </c>
+      <c r="BV6">
+        <v>3.325136615960263E-06</v>
+      </c>
+      <c r="BW6">
+        <v>0.0005373755072105252</v>
+      </c>
+      <c r="BX6">
+        <v>-2.373446623874779E-05</v>
+      </c>
+      <c r="BY6">
+        <v>1.522921096910648E-09</v>
+      </c>
+      <c r="BZ6">
+        <v>3.204253549532937E-05</v>
+      </c>
+      <c r="CA6">
+        <v>8.31831447888761E-05</v>
+      </c>
+      <c r="CB6">
+        <v>7.475844810987647E-05</v>
+      </c>
+      <c r="CC6">
+        <v>2.847164710630383E-05</v>
+      </c>
+      <c r="CD6">
+        <v>0.0007895943271584378</v>
+      </c>
+      <c r="CE6">
+        <v>3.222005099259124E-05</v>
+      </c>
+      <c r="CF6">
+        <v>0.000619924708156705</v>
+      </c>
+      <c r="CG6">
+        <v>0.01134313648103152</v>
+      </c>
+      <c r="CH6">
+        <v>0.003771481064167427</v>
+      </c>
+      <c r="CI6">
+        <v>0.0001846883723611134</v>
+      </c>
+      <c r="CJ6">
+        <v>2.15464269522623E-06</v>
+      </c>
+      <c r="CK6">
+        <v>0.002869888981283811</v>
+      </c>
+      <c r="CL6">
+        <v>0.000944530323702536</v>
+      </c>
+      <c r="CM6">
+        <v>0.0001778910924123869</v>
+      </c>
+      <c r="CN6">
+        <v>3.325136615960263E-06</v>
+      </c>
+      <c r="CO6">
+        <v>0.0005373755072105252</v>
+      </c>
+      <c r="CP6">
+        <v>-2.373446623874779E-05</v>
+      </c>
+      <c r="CQ6">
+        <v>1.522921096910648E-09</v>
+      </c>
+      <c r="CR6">
+        <v>3.204253549532937E-05</v>
+      </c>
+      <c r="CS6">
+        <v>8.31831447888761E-05</v>
+      </c>
+      <c r="CT6">
+        <v>6.434931145023762E-05</v>
+      </c>
+      <c r="CU6">
+        <v>2.745062491814883E-06</v>
+      </c>
+      <c r="CV6">
+        <v>0.0007895943271584378</v>
+      </c>
+      <c r="CW6">
+        <v>3.222005099259124E-05</v>
+      </c>
+      <c r="CX6">
+        <v>0.000619924708156705</v>
+      </c>
+      <c r="CY6">
+        <v>0.01201655322908692</v>
+      </c>
+      <c r="CZ6">
+        <v>0.003771481064167427</v>
+      </c>
+      <c r="DA6">
+        <v>0.000184687488582718</v>
+      </c>
+      <c r="DB6">
+        <v>2.15464269522623E-06</v>
+      </c>
+      <c r="DC6">
+        <v>0.0007242618959587222</v>
+      </c>
+      <c r="DD6">
+        <v>0.0003552756078655408</v>
+      </c>
+      <c r="DE6">
+        <v>9.922599628339373E-05</v>
+      </c>
+      <c r="DF6">
+        <v>3.325136615960263E-06</v>
+      </c>
+      <c r="DG6">
+        <v>0.0005373755072105252</v>
+      </c>
+      <c r="DH6">
+        <v>-2.373446623874779E-05</v>
+      </c>
+      <c r="DI6">
+        <v>1.522921096910648E-09</v>
+      </c>
+      <c r="DJ6">
+        <v>3.204253549532937E-05</v>
+      </c>
+      <c r="DK6">
+        <v>8.31831447888761E-05</v>
+      </c>
+      <c r="DL6">
+        <v>5.931471662039821E-05</v>
+      </c>
+      <c r="DM6">
+        <v>2.744667734472964E-06</v>
+      </c>
+      <c r="DN6">
+        <v>0.0007895943271584378</v>
+      </c>
+      <c r="DO6">
+        <v>3.222005099259124E-05</v>
+      </c>
+      <c r="DP6">
         <v>0.004068642725482476</v>
       </c>
-      <c r="BO6">
+      <c r="DQ6">
         <v>0.004742454519692859</v>
       </c>
-      <c r="BP6">
+      <c r="DR6">
         <v>5.495041695432676E-06</v>
       </c>
-      <c r="BQ6">
+      <c r="DS6">
         <v>0.01138802431732351</v>
       </c>
-      <c r="BR6">
+      <c r="DT6">
         <v>1.523074541123929E-09</v>
       </c>
-      <c r="BS6">
+      <c r="DU6">
         <v>6.885613220704444E-05</v>
       </c>
-      <c r="BT6">
+      <c r="DV6">
         <v>1.232364657294273E-05</v>
       </c>
-      <c r="BU6">
+      <c r="DW6">
         <v>0.2984388612225895</v>
       </c>
-      <c r="BV6">
+      <c r="DX6">
         <v>1.71636272844905E-05</v>
       </c>
     </row>
-    <row r="7" spans="1:74">
+    <row r="7" spans="1:128">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>1.195731784865533E-05</v>
@@ -1613,39 +2459,201 @@
         <v>0.00196115413677454</v>
       </c>
       <c r="BN7">
+        <v>0.0008643332146461701</v>
+      </c>
+      <c r="BO7">
+        <v>0.0143669128735681</v>
+      </c>
+      <c r="BP7">
+        <v>0.004808832928925245</v>
+      </c>
+      <c r="BQ7">
+        <v>0.0003313579253521399</v>
+      </c>
+      <c r="BR7">
+        <v>6.266248484501445E-06</v>
+      </c>
+      <c r="BS7">
+        <v>0.2265673759625942</v>
+      </c>
+      <c r="BT7">
+        <v>0.002386568389609288</v>
+      </c>
+      <c r="BU7">
+        <v>0.2588706602719557</v>
+      </c>
+      <c r="BV7">
+        <v>4.914086258823786E-06</v>
+      </c>
+      <c r="BW7">
+        <v>0.0009967834696573172</v>
+      </c>
+      <c r="BX7">
+        <v>-2.407074797332365E-05</v>
+      </c>
+      <c r="BY7">
+        <v>1.500605892307982E-09</v>
+      </c>
+      <c r="BZ7">
+        <v>4.297045380709703E-05</v>
+      </c>
+      <c r="CA7">
+        <v>9.757063669653656E-05</v>
+      </c>
+      <c r="CB7">
+        <v>9.871123841295629E-05</v>
+      </c>
+      <c r="CC7">
+        <v>2.538317935852385E-05</v>
+      </c>
+      <c r="CD7">
+        <v>0.001379456699311806</v>
+      </c>
+      <c r="CE7">
+        <v>0.0003774419412932979</v>
+      </c>
+      <c r="CF7">
+        <v>0.0008643332146461701</v>
+      </c>
+      <c r="CG7">
+        <v>0.0147966581310979</v>
+      </c>
+      <c r="CH7">
+        <v>0.004808832928925245</v>
+      </c>
+      <c r="CI7">
+        <v>0.0003286860258434845</v>
+      </c>
+      <c r="CJ7">
+        <v>6.266248484501445E-06</v>
+      </c>
+      <c r="CK7">
+        <v>0.00544643934822762</v>
+      </c>
+      <c r="CL7">
+        <v>0.002386568389609288</v>
+      </c>
+      <c r="CM7">
+        <v>0.0003018524600755418</v>
+      </c>
+      <c r="CN7">
+        <v>4.914086258823786E-06</v>
+      </c>
+      <c r="CO7">
+        <v>0.0009967834696573172</v>
+      </c>
+      <c r="CP7">
+        <v>-2.407074797332365E-05</v>
+      </c>
+      <c r="CQ7">
+        <v>1.500605892307982E-09</v>
+      </c>
+      <c r="CR7">
+        <v>4.297045380709703E-05</v>
+      </c>
+      <c r="CS7">
+        <v>9.757063669653656E-05</v>
+      </c>
+      <c r="CT7">
+        <v>8.606621487737062E-05</v>
+      </c>
+      <c r="CU7">
+        <v>2.644500274141904E-06</v>
+      </c>
+      <c r="CV7">
+        <v>0.001379456699311806</v>
+      </c>
+      <c r="CW7">
+        <v>0.0003774419412932979</v>
+      </c>
+      <c r="CX7">
+        <v>0.0008643332146461701</v>
+      </c>
+      <c r="CY7">
+        <v>0.0157883345062413</v>
+      </c>
+      <c r="CZ7">
+        <v>0.004808832928925245</v>
+      </c>
+      <c r="DA7">
+        <v>0.0003286847499349596</v>
+      </c>
+      <c r="DB7">
+        <v>6.266248484501445E-06</v>
+      </c>
+      <c r="DC7">
+        <v>0.0006737858056532714</v>
+      </c>
+      <c r="DD7">
+        <v>0.001366831793389314</v>
+      </c>
+      <c r="DE7">
+        <v>0.00018058027367604</v>
+      </c>
+      <c r="DF7">
+        <v>4.914086258823786E-06</v>
+      </c>
+      <c r="DG7">
+        <v>0.0009967834696573172</v>
+      </c>
+      <c r="DH7">
+        <v>-2.407074797332365E-05</v>
+      </c>
+      <c r="DI7">
+        <v>1.500605892307982E-09</v>
+      </c>
+      <c r="DJ7">
+        <v>4.297045380709703E-05</v>
+      </c>
+      <c r="DK7">
+        <v>9.757063669653656E-05</v>
+      </c>
+      <c r="DL7">
+        <v>7.95852338223716E-05</v>
+      </c>
+      <c r="DM7">
+        <v>2.643890248888143E-06</v>
+      </c>
+      <c r="DN7">
+        <v>0.001379456699311806</v>
+      </c>
+      <c r="DO7">
+        <v>0.0003774419412932979</v>
+      </c>
+      <c r="DP7">
         <v>0.005287605295456419</v>
       </c>
-      <c r="BO7">
+      <c r="DQ7">
         <v>0.007295528323257717</v>
       </c>
-      <c r="BP7">
+      <c r="DR7">
         <v>6.114866804588535E-06</v>
       </c>
-      <c r="BQ7">
+      <c r="DS7">
         <v>0.01484701705873802</v>
       </c>
-      <c r="BR7">
+      <c r="DT7">
         <v>1.492307389145595E-09</v>
       </c>
-      <c r="BS7">
+      <c r="DU7">
         <v>7.936649646704667E-05</v>
       </c>
-      <c r="BT7">
+      <c r="DV7">
         <v>1.916794772048418E-05</v>
       </c>
-      <c r="BU7">
+      <c r="DW7">
         <v>0.2711416662348193</v>
       </c>
-      <c r="BV7">
+      <c r="DX7">
         <v>2.491184028878429E-05</v>
       </c>
     </row>
-    <row r="8" spans="1:74">
+    <row r="8" spans="1:128">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>-4.84562781054084E-06</v>
@@ -1837,39 +2845,201 @@
         <v>-0.00174928133619039</v>
       </c>
       <c r="BN8">
+        <v>-0.0003317315055626189</v>
+      </c>
+      <c r="BO8">
+        <v>-0.01124592225362904</v>
+      </c>
+      <c r="BP8">
+        <v>-0.004744175878966444</v>
+      </c>
+      <c r="BQ8">
+        <v>-0.0001932612908847846</v>
+      </c>
+      <c r="BR8">
+        <v>-1.159762621919691E-06</v>
+      </c>
+      <c r="BS8">
+        <v>-0.1614195506663382</v>
+      </c>
+      <c r="BT8">
+        <v>-0.0009609862702134443</v>
+      </c>
+      <c r="BU8">
+        <v>-0.160917063006374</v>
+      </c>
+      <c r="BV8">
+        <v>-4.161777245061864E-06</v>
+      </c>
+      <c r="BW8">
+        <v>-0.0002940016549818216</v>
+      </c>
+      <c r="BX8">
+        <v>1.878574089030727E-06</v>
+      </c>
+      <c r="BY8">
+        <v>-2.222982636615478E-09</v>
+      </c>
+      <c r="BZ8">
+        <v>-0.0001176932710837781</v>
+      </c>
+      <c r="CA8">
+        <v>-0.0001159587957705439</v>
+      </c>
+      <c r="CB8">
+        <v>-8.847873324791799E-05</v>
+      </c>
+      <c r="CC8">
+        <v>-2.535133146596439E-05</v>
+      </c>
+      <c r="CD8">
+        <v>-0.0008497508206957937</v>
+      </c>
+      <c r="CE8">
+        <v>-2.078262026473431E-05</v>
+      </c>
+      <c r="CF8">
+        <v>-0.0003317315055626189</v>
+      </c>
+      <c r="CG8">
+        <v>-0.01148308616478276</v>
+      </c>
+      <c r="CH8">
+        <v>-0.004744175878966444</v>
+      </c>
+      <c r="CI8">
+        <v>-0.0001903166551961553</v>
+      </c>
+      <c r="CJ8">
+        <v>-1.159762621919691E-06</v>
+      </c>
+      <c r="CK8">
+        <v>-0.006667177850653638</v>
+      </c>
+      <c r="CL8">
+        <v>-0.0009609862702134443</v>
+      </c>
+      <c r="CM8">
+        <v>-0.0001873257910094038</v>
+      </c>
+      <c r="CN8">
+        <v>-4.161777245061864E-06</v>
+      </c>
+      <c r="CO8">
+        <v>-0.0002940016549818216</v>
+      </c>
+      <c r="CP8">
+        <v>1.878574089030727E-06</v>
+      </c>
+      <c r="CQ8">
+        <v>-2.222982636615478E-09</v>
+      </c>
+      <c r="CR8">
+        <v>-0.0001176932710837781</v>
+      </c>
+      <c r="CS8">
+        <v>-0.0001159587957705439</v>
+      </c>
+      <c r="CT8">
+        <v>-7.385354436446713E-05</v>
+      </c>
+      <c r="CU8">
+        <v>-2.393525605543103E-06</v>
+      </c>
+      <c r="CV8">
+        <v>-0.0008497508206957937</v>
+      </c>
+      <c r="CW8">
+        <v>-2.078262026473431E-05</v>
+      </c>
+      <c r="CX8">
+        <v>-0.0003317315055626189</v>
+      </c>
+      <c r="CY8">
+        <v>-0.01199134457807015</v>
+      </c>
+      <c r="CZ8">
+        <v>-0.004744175878966444</v>
+      </c>
+      <c r="DA8">
+        <v>-0.0001903157090437566</v>
+      </c>
+      <c r="DB8">
+        <v>-1.159762621919691E-06</v>
+      </c>
+      <c r="DC8">
+        <v>-0.0007751641260110674</v>
+      </c>
+      <c r="DD8">
+        <v>-0.0002204553783494671</v>
+      </c>
+      <c r="DE8">
+        <v>-0.0001248101909244937</v>
+      </c>
+      <c r="DF8">
+        <v>-4.161777245061864E-06</v>
+      </c>
+      <c r="DG8">
+        <v>-0.0002940016549818216</v>
+      </c>
+      <c r="DH8">
+        <v>1.878574089030727E-06</v>
+      </c>
+      <c r="DI8">
+        <v>-2.222982636615478E-09</v>
+      </c>
+      <c r="DJ8">
+        <v>-0.0001176932710837781</v>
+      </c>
+      <c r="DK8">
+        <v>-0.0001159587957705439</v>
+      </c>
+      <c r="DL8">
+        <v>-6.697798566505552E-05</v>
+      </c>
+      <c r="DM8">
+        <v>-2.393328317432215E-06</v>
+      </c>
+      <c r="DN8">
+        <v>-0.0008497508206957937</v>
+      </c>
+      <c r="DO8">
+        <v>-2.078262026473431E-05</v>
+      </c>
+      <c r="DP8">
         <v>-0.004886629115102807</v>
       </c>
-      <c r="BO8">
+      <c r="DQ8">
         <v>-0.003210125877301873</v>
       </c>
-      <c r="BP8">
+      <c r="DR8">
         <v>-7.749696717517033E-06</v>
       </c>
-      <c r="BQ8">
+      <c r="DS8">
         <v>-0.01151445231249454</v>
       </c>
-      <c r="BR8">
+      <c r="DT8">
         <v>-2.227590471911156E-09</v>
       </c>
-      <c r="BS8">
+      <c r="DU8">
         <v>-9.772503976673567E-05</v>
       </c>
-      <c r="BT8">
+      <c r="DV8">
         <v>-7.342781524657514E-06</v>
       </c>
-      <c r="BU8">
+      <c r="DW8">
         <v>-0.2694438952157019</v>
       </c>
-      <c r="BV8">
+      <c r="DX8">
         <v>-3.519970495553953E-05</v>
       </c>
     </row>
-    <row r="9" spans="1:74">
+    <row r="9" spans="1:128">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>-2.198591547393395E-05</v>
@@ -2061,39 +3231,201 @@
         <v>-0.01159890053449843</v>
       </c>
       <c r="BN9">
+        <v>-0.00104632790927576</v>
+      </c>
+      <c r="BO9">
+        <v>-0.100977203882066</v>
+      </c>
+      <c r="BP9">
+        <v>-0.03768881514125524</v>
+      </c>
+      <c r="BQ9">
+        <v>-0.0008043418544872073</v>
+      </c>
+      <c r="BR9">
+        <v>-8.740105968292497E-06</v>
+      </c>
+      <c r="BS9">
+        <v>-0.6882129943567303</v>
+      </c>
+      <c r="BT9">
+        <v>-0.007559323017677515</v>
+      </c>
+      <c r="BU9">
+        <v>-0.7301096777116897</v>
+      </c>
+      <c r="BV9">
+        <v>-2.426833447810512E-05</v>
+      </c>
+      <c r="BW9">
+        <v>-0.001973641216652059</v>
+      </c>
+      <c r="BX9">
+        <v>1.047266166189001E-05</v>
+      </c>
+      <c r="BY9">
+        <v>-1.805200802217793E-08</v>
+      </c>
+      <c r="BZ9">
+        <v>-0.0002388435802656556</v>
+      </c>
+      <c r="CA9">
+        <v>-0.0006640989652369259</v>
+      </c>
+      <c r="CB9">
+        <v>-0.0005326967899965337</v>
+      </c>
+      <c r="CC9">
+        <v>-0.0005498004676233232</v>
+      </c>
+      <c r="CD9">
+        <v>-0.008244534725690325</v>
+      </c>
+      <c r="CE9">
+        <v>-0.0001706369010529993</v>
+      </c>
+      <c r="CF9">
+        <v>-0.00104632790927576</v>
+      </c>
+      <c r="CG9">
+        <v>-0.1026200242787995</v>
+      </c>
+      <c r="CH9">
+        <v>-0.03768881514125524</v>
+      </c>
+      <c r="CI9">
+        <v>-0.0007463094032816632</v>
+      </c>
+      <c r="CJ9">
+        <v>-8.740105968292497E-06</v>
+      </c>
+      <c r="CK9">
+        <v>-0.02930564114521486</v>
+      </c>
+      <c r="CL9">
+        <v>-0.007559323017677515</v>
+      </c>
+      <c r="CM9">
+        <v>-0.0009840695531526881</v>
+      </c>
+      <c r="CN9">
+        <v>-2.426833447810512E-05</v>
+      </c>
+      <c r="CO9">
+        <v>-0.001973641216652059</v>
+      </c>
+      <c r="CP9">
+        <v>1.047266166189001E-05</v>
+      </c>
+      <c r="CQ9">
+        <v>-1.805200802217793E-08</v>
+      </c>
+      <c r="CR9">
+        <v>-0.0002388435802656556</v>
+      </c>
+      <c r="CS9">
+        <v>-0.0006640989652369259</v>
+      </c>
+      <c r="CT9">
+        <v>-0.0004504674023259646</v>
+      </c>
+      <c r="CU9">
+        <v>-5.008491788332091E-05</v>
+      </c>
+      <c r="CV9">
+        <v>-0.008244534725690325</v>
+      </c>
+      <c r="CW9">
+        <v>-0.0001706369010529993</v>
+      </c>
+      <c r="CX9">
+        <v>-0.00104632790927576</v>
+      </c>
+      <c r="CY9">
+        <v>-0.10617015084596</v>
+      </c>
+      <c r="CZ9">
+        <v>-0.03768881514125524</v>
+      </c>
+      <c r="DA9">
+        <v>-0.0007463007562348848</v>
+      </c>
+      <c r="DB9">
+        <v>-8.740105968292497E-06</v>
+      </c>
+      <c r="DC9">
+        <v>-0.01398731128155416</v>
+      </c>
+      <c r="DD9">
+        <v>-0.001631001776432527</v>
+      </c>
+      <c r="DE9">
+        <v>-0.0005269155965018963</v>
+      </c>
+      <c r="DF9">
+        <v>-2.426833447810512E-05</v>
+      </c>
+      <c r="DG9">
+        <v>-0.001973641216652059</v>
+      </c>
+      <c r="DH9">
+        <v>1.047266166189001E-05</v>
+      </c>
+      <c r="DI9">
+        <v>-1.805200802217793E-08</v>
+      </c>
+      <c r="DJ9">
+        <v>-0.0002388435802656556</v>
+      </c>
+      <c r="DK9">
+        <v>-0.0006640989652369259</v>
+      </c>
+      <c r="DL9">
+        <v>-0.0004116664264550876</v>
+      </c>
+      <c r="DM9">
+        <v>-5.008349359697691E-05</v>
+      </c>
+      <c r="DN9">
+        <v>-0.008244534725690325</v>
+      </c>
+      <c r="DO9">
+        <v>-0.0001706369010529993</v>
+      </c>
+      <c r="DP9">
         <v>-0.02924557099437919</v>
       </c>
-      <c r="BO9">
+      <c r="DQ9">
         <v>-0.04649384840491339</v>
       </c>
-      <c r="BP9">
+      <c r="DR9">
         <v>-5.221649733322945E-05</v>
       </c>
-      <c r="BQ9">
+      <c r="DS9">
         <v>-0.1027190717870815</v>
       </c>
-      <c r="BR9">
+      <c r="DT9">
         <v>-1.809107911098898E-08</v>
       </c>
-      <c r="BS9">
+      <c r="DU9">
         <v>-0.0005499561631202159</v>
       </c>
-      <c r="BT9">
+      <c r="DV9">
         <v>-7.883193064156795E-05</v>
       </c>
-      <c r="BU9">
+      <c r="DW9">
         <v>-6.473777634589058</v>
       </c>
-      <c r="BV9">
+      <c r="DX9">
         <v>-0.0001055316834483736</v>
       </c>
     </row>
-    <row r="10" spans="1:74">
+    <row r="10" spans="1:128">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>0.0001204033767902556</v>
@@ -2285,39 +3617,201 @@
         <v>0.004842545696431156</v>
       </c>
       <c r="BN10">
+        <v>0.0141208610865925</v>
+      </c>
+      <c r="BO10">
+        <v>0.04457178519425312</v>
+      </c>
+      <c r="BP10">
+        <v>0.01296581938516014</v>
+      </c>
+      <c r="BQ10">
+        <v>0.0003837265412731048</v>
+      </c>
+      <c r="BR10">
+        <v>8.362856222725583E-06</v>
+      </c>
+      <c r="BS10">
+        <v>0.4363412707415976</v>
+      </c>
+      <c r="BT10">
+        <v>0.001973628306848045</v>
+      </c>
+      <c r="BU10">
+        <v>0.4111967339952504</v>
+      </c>
+      <c r="BV10">
+        <v>1.163525864302076E-05</v>
+      </c>
+      <c r="BW10">
+        <v>0.0007171317304685937</v>
+      </c>
+      <c r="BX10">
+        <v>-2.084814877775085E-05</v>
+      </c>
+      <c r="BY10">
+        <v>4.524949826190511E-09</v>
+      </c>
+      <c r="BZ10">
+        <v>0.0001211901171747788</v>
+      </c>
+      <c r="CA10">
+        <v>0.0002883111027641034</v>
+      </c>
+      <c r="CB10">
+        <v>0.0003191118866488734</v>
+      </c>
+      <c r="CC10">
+        <v>9.13715255825818E-05</v>
+      </c>
+      <c r="CD10">
+        <v>0.002391805016819208</v>
+      </c>
+      <c r="CE10">
+        <v>0.0002150357265981701</v>
+      </c>
+      <c r="CF10">
+        <v>0.0141208610865925</v>
+      </c>
+      <c r="CG10">
+        <v>0.0460749843136043</v>
+      </c>
+      <c r="CH10">
+        <v>0.01296581938516014</v>
+      </c>
+      <c r="CI10">
+        <v>0.0003728343583797916</v>
+      </c>
+      <c r="CJ10">
+        <v>8.362856222725583E-06</v>
+      </c>
+      <c r="CK10">
+        <v>0.01192812428204264</v>
+      </c>
+      <c r="CL10">
+        <v>0.001973628306848045</v>
+      </c>
+      <c r="CM10">
+        <v>0.0003879504979709609</v>
+      </c>
+      <c r="CN10">
+        <v>1.163525864302076E-05</v>
+      </c>
+      <c r="CO10">
+        <v>0.0007171317304685937</v>
+      </c>
+      <c r="CP10">
+        <v>-2.084814877775085E-05</v>
+      </c>
+      <c r="CQ10">
+        <v>4.524949826190511E-09</v>
+      </c>
+      <c r="CR10">
+        <v>0.0001211901171747788</v>
+      </c>
+      <c r="CS10">
+        <v>0.0002883111027641034</v>
+      </c>
+      <c r="CT10">
+        <v>0.0002828643941529083</v>
+      </c>
+      <c r="CU10">
+        <v>9.203704412636082E-06</v>
+      </c>
+      <c r="CV10">
+        <v>0.002391805016819208</v>
+      </c>
+      <c r="CW10">
+        <v>0.0002150357265981701</v>
+      </c>
+      <c r="CX10">
+        <v>0.0141208610865925</v>
+      </c>
+      <c r="CY10">
+        <v>0.04976446179770969</v>
+      </c>
+      <c r="CZ10">
+        <v>0.01296581938516014</v>
+      </c>
+      <c r="DA10">
+        <v>0.0003728316757045423</v>
+      </c>
+      <c r="DB10">
+        <v>8.362856222725583E-06</v>
+      </c>
+      <c r="DC10">
+        <v>0.003050028559411623</v>
+      </c>
+      <c r="DD10">
+        <v>0.0004715709618852436</v>
+      </c>
+      <c r="DE10">
+        <v>0.0002409109304346809</v>
+      </c>
+      <c r="DF10">
+        <v>1.163525864302076E-05</v>
+      </c>
+      <c r="DG10">
+        <v>0.0007171317304685937</v>
+      </c>
+      <c r="DH10">
+        <v>-2.084814877775085E-05</v>
+      </c>
+      <c r="DI10">
+        <v>4.524949826190511E-09</v>
+      </c>
+      <c r="DJ10">
+        <v>0.0001211901171747788</v>
+      </c>
+      <c r="DK10">
+        <v>0.0002883111027641034</v>
+      </c>
+      <c r="DL10">
+        <v>0.0002656577807899843</v>
+      </c>
+      <c r="DM10">
+        <v>9.202777170208824E-06</v>
+      </c>
+      <c r="DN10">
+        <v>0.002391805016819208</v>
+      </c>
+      <c r="DO10">
+        <v>0.0002150357265981701</v>
+      </c>
+      <c r="DP10">
         <v>0.01748414680533177</v>
       </c>
-      <c r="BO10">
+      <c r="DQ10">
         <v>0.03192929879600201</v>
       </c>
-      <c r="BP10">
+      <c r="DR10">
         <v>1.786341836421075E-05</v>
       </c>
-      <c r="BQ10">
+      <c r="DS10">
         <v>0.04604158936142336</v>
       </c>
-      <c r="BR10">
+      <c r="DT10">
         <v>4.533242150000277E-09</v>
       </c>
-      <c r="BS10">
+      <c r="DU10">
         <v>0.000242985046721248</v>
       </c>
-      <c r="BT10">
+      <c r="DV10">
         <v>6.832794247948534E-05</v>
       </c>
-      <c r="BU10">
+      <c r="DW10">
         <v>1.011014932889841</v>
       </c>
-      <c r="BV10">
+      <c r="DX10">
         <v>7.288610364577713E-05</v>
       </c>
     </row>
-    <row r="11" spans="1:74">
+    <row r="11" spans="1:128">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>0.0004350765840229042</v>
@@ -2509,39 +4003,201 @@
         <v>0.01643731931489504</v>
       </c>
       <c r="BN11">
+        <v>0.02760429068529268</v>
+      </c>
+      <c r="BO11">
+        <v>0.1776326049121358</v>
+      </c>
+      <c r="BP11">
+        <v>0.03468947752728003</v>
+      </c>
+      <c r="BQ11">
+        <v>0.001995995699355791</v>
+      </c>
+      <c r="BR11">
+        <v>2.242801671300862E-05</v>
+      </c>
+      <c r="BS11">
+        <v>1.186019953611035</v>
+      </c>
+      <c r="BT11">
+        <v>0.006944878799651908</v>
+      </c>
+      <c r="BU11">
+        <v>1.489505848741268</v>
+      </c>
+      <c r="BV11">
+        <v>2.98277811090804E-05</v>
+      </c>
+      <c r="BW11">
+        <v>0.00909551972546039</v>
+      </c>
+      <c r="BX11">
+        <v>-2.596205558573115E-05</v>
+      </c>
+      <c r="BY11">
+        <v>1.232173546664105E-08</v>
+      </c>
+      <c r="BZ11">
+        <v>0.00027400028201456</v>
+      </c>
+      <c r="CA11">
+        <v>0.0005929368386987813</v>
+      </c>
+      <c r="CB11">
+        <v>0.0006718464461157507</v>
+      </c>
+      <c r="CC11">
+        <v>0.00019458284151007</v>
+      </c>
+      <c r="CD11">
+        <v>0.005805102509820544</v>
+      </c>
+      <c r="CE11">
+        <v>0.0004997311308663114</v>
+      </c>
+      <c r="CF11">
+        <v>0.02760429068529268</v>
+      </c>
+      <c r="CG11">
+        <v>0.1820698956301594</v>
+      </c>
+      <c r="CH11">
+        <v>0.03468947752728003</v>
+      </c>
+      <c r="CI11">
+        <v>0.001971053828459281</v>
+      </c>
+      <c r="CJ11">
+        <v>2.242801671300862E-05</v>
+      </c>
+      <c r="CK11">
+        <v>0.02861257890517663</v>
+      </c>
+      <c r="CL11">
+        <v>0.006944878799651908</v>
+      </c>
+      <c r="CM11">
+        <v>0.001857149342305228</v>
+      </c>
+      <c r="CN11">
+        <v>2.98277811090804E-05</v>
+      </c>
+      <c r="CO11">
+        <v>0.00909551972546039</v>
+      </c>
+      <c r="CP11">
+        <v>-2.596205558573115E-05</v>
+      </c>
+      <c r="CQ11">
+        <v>1.232173546664105E-08</v>
+      </c>
+      <c r="CR11">
+        <v>0.00027400028201456</v>
+      </c>
+      <c r="CS11">
+        <v>0.0005929368386987813</v>
+      </c>
+      <c r="CT11">
+        <v>0.0005995374007521057</v>
+      </c>
+      <c r="CU11">
+        <v>2.095864906603725E-05</v>
+      </c>
+      <c r="CV11">
+        <v>0.005805102509820544</v>
+      </c>
+      <c r="CW11">
+        <v>0.0004997311308663114</v>
+      </c>
+      <c r="CX11">
+        <v>0.02760429068529268</v>
+      </c>
+      <c r="CY11">
+        <v>0.1930921699370149</v>
+      </c>
+      <c r="CZ11">
+        <v>0.03468947752728003</v>
+      </c>
+      <c r="DA11">
+        <v>0.001971046259825754</v>
+      </c>
+      <c r="DB11">
+        <v>2.242801671300862E-05</v>
+      </c>
+      <c r="DC11">
+        <v>0.005083275575803493</v>
+      </c>
+      <c r="DD11">
+        <v>0.002513127448020427</v>
+      </c>
+      <c r="DE11">
+        <v>0.001072562475158656</v>
+      </c>
+      <c r="DF11">
+        <v>2.98277811090804E-05</v>
+      </c>
+      <c r="DG11">
+        <v>0.00909551972546039</v>
+      </c>
+      <c r="DH11">
+        <v>-2.596205558573115E-05</v>
+      </c>
+      <c r="DI11">
+        <v>1.232173546664105E-08</v>
+      </c>
+      <c r="DJ11">
+        <v>0.00027400028201456</v>
+      </c>
+      <c r="DK11">
+        <v>0.0005929368386987813</v>
+      </c>
+      <c r="DL11">
+        <v>0.0005642242761222568</v>
+      </c>
+      <c r="DM11">
+        <v>2.095467157745979E-05</v>
+      </c>
+      <c r="DN11">
+        <v>0.005805102509820544</v>
+      </c>
+      <c r="DO11">
+        <v>0.0004997311308663114</v>
+      </c>
+      <c r="DP11">
         <v>0.03631571441567157</v>
       </c>
-      <c r="BO11">
+      <c r="DQ11">
         <v>0.08151795844422337</v>
       </c>
-      <c r="BP11">
+      <c r="DR11">
         <v>4.199754743280298E-05</v>
       </c>
-      <c r="BQ11">
+      <c r="DS11">
         <v>0.1826126440602099</v>
       </c>
-      <c r="BR11">
+      <c r="DT11">
         <v>1.231390307881854E-08</v>
       </c>
-      <c r="BS11">
+      <c r="DU11">
         <v>0.0004793745743702594</v>
       </c>
-      <c r="BT11">
+      <c r="DV11">
         <v>0.0001901071348833808</v>
       </c>
-      <c r="BU11">
+      <c r="DW11">
         <v>1.777357055323549</v>
       </c>
-      <c r="BV11">
+      <c r="DX11">
         <v>0.0001623095685052265</v>
       </c>
     </row>
-    <row r="12" spans="1:74">
+    <row r="12" spans="1:128">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>4.969135650554685E-06</v>
@@ -2733,39 +4389,201 @@
         <v>0.001612401798258867</v>
       </c>
       <c r="BN12">
+        <v>0.005020775628851414</v>
+      </c>
+      <c r="BO12">
+        <v>0.01095068650319822</v>
+      </c>
+      <c r="BP12">
+        <v>0.003729977209636697</v>
+      </c>
+      <c r="BQ12">
+        <v>0.0001811557423434834</v>
+      </c>
+      <c r="BR12">
+        <v>2.410374488522054E-06</v>
+      </c>
+      <c r="BS12">
+        <v>0.1127500032620089</v>
+      </c>
+      <c r="BT12">
+        <v>0.0008641144880193702</v>
+      </c>
+      <c r="BU12">
+        <v>0.1347179649989682</v>
+      </c>
+      <c r="BV12">
+        <v>3.945595962557311E-06</v>
+      </c>
+      <c r="BW12">
+        <v>0.0005034345442206568</v>
+      </c>
+      <c r="BX12">
+        <v>-1.722782555197868E-05</v>
+      </c>
+      <c r="BY12">
+        <v>1.4471527963834E-09</v>
+      </c>
+      <c r="BZ12">
+        <v>3.613274694113934E-05</v>
+      </c>
+      <c r="CA12">
+        <v>0.0001004138473749197</v>
+      </c>
+      <c r="CB12">
+        <v>8.619602270918352E-05</v>
+      </c>
+      <c r="CC12">
+        <v>2.352634383020708E-05</v>
+      </c>
+      <c r="CD12">
+        <v>0.0008914160419718614</v>
+      </c>
+      <c r="CE12">
+        <v>7.533542789222229E-05</v>
+      </c>
+      <c r="CF12">
+        <v>0.005020775628851414</v>
+      </c>
+      <c r="CG12">
+        <v>0.01123663776133508</v>
+      </c>
+      <c r="CH12">
+        <v>0.003729977209636697</v>
+      </c>
+      <c r="CI12">
+        <v>0.000178592199049984</v>
+      </c>
+      <c r="CJ12">
+        <v>2.410374488522054E-06</v>
+      </c>
+      <c r="CK12">
+        <v>0.002771266036099794</v>
+      </c>
+      <c r="CL12">
+        <v>0.0008641144880193702</v>
+      </c>
+      <c r="CM12">
+        <v>0.0001703492832518753</v>
+      </c>
+      <c r="CN12">
+        <v>3.945595962557311E-06</v>
+      </c>
+      <c r="CO12">
+        <v>0.0005034345442206568</v>
+      </c>
+      <c r="CP12">
+        <v>-1.722782555197868E-05</v>
+      </c>
+      <c r="CQ12">
+        <v>1.4471527963834E-09</v>
+      </c>
+      <c r="CR12">
+        <v>3.613274694113934E-05</v>
+      </c>
+      <c r="CS12">
+        <v>0.0001004138473749197</v>
+      </c>
+      <c r="CT12">
+        <v>7.358255064536634E-05</v>
+      </c>
+      <c r="CU12">
+        <v>2.271402911901861E-06</v>
+      </c>
+      <c r="CV12">
+        <v>0.0008914160419718614</v>
+      </c>
+      <c r="CW12">
+        <v>7.533542789222229E-05</v>
+      </c>
+      <c r="CX12">
+        <v>0.005020775628851414</v>
+      </c>
+      <c r="CY12">
+        <v>0.01188175625457577</v>
+      </c>
+      <c r="CZ12">
+        <v>0.003729977209636697</v>
+      </c>
+      <c r="DA12">
+        <v>0.0001785912023484785</v>
+      </c>
+      <c r="DB12">
+        <v>2.410374488522054E-06</v>
+      </c>
+      <c r="DC12">
+        <v>0.0005572450309667298</v>
+      </c>
+      <c r="DD12">
+        <v>0.0003156884258434437</v>
+      </c>
+      <c r="DE12">
+        <v>9.761760771859974E-05</v>
+      </c>
+      <c r="DF12">
+        <v>3.945595962557311E-06</v>
+      </c>
+      <c r="DG12">
+        <v>0.0005034345442206568</v>
+      </c>
+      <c r="DH12">
+        <v>-1.722782555197868E-05</v>
+      </c>
+      <c r="DI12">
+        <v>1.4471527963834E-09</v>
+      </c>
+      <c r="DJ12">
+        <v>3.613274694113934E-05</v>
+      </c>
+      <c r="DK12">
+        <v>0.0001004138473749197</v>
+      </c>
+      <c r="DL12">
+        <v>6.753084233931184E-05</v>
+      </c>
+      <c r="DM12">
+        <v>2.271042824892081E-06</v>
+      </c>
+      <c r="DN12">
+        <v>0.0008914160419718614</v>
+      </c>
+      <c r="DO12">
+        <v>7.533542789222229E-05</v>
+      </c>
+      <c r="DP12">
         <v>0.004705685493330141</v>
       </c>
-      <c r="BO12">
+      <c r="DQ12">
         <v>0.004878654631786787</v>
       </c>
-      <c r="BP12">
+      <c r="DR12">
         <v>6.028826010859509E-06</v>
       </c>
-      <c r="BQ12">
+      <c r="DS12">
         <v>0.01127637363399342</v>
       </c>
-      <c r="BR12">
+      <c r="DT12">
         <v>1.448567250713429E-09</v>
       </c>
-      <c r="BS12">
+      <c r="DU12">
         <v>8.347097722026158E-05</v>
       </c>
-      <c r="BT12">
+      <c r="DV12">
         <v>1.18419912180627E-05</v>
       </c>
-      <c r="BU12">
+      <c r="DW12">
         <v>0.2435636668384997</v>
       </c>
-      <c r="BV12">
+      <c r="DX12">
         <v>1.856114109775276E-05</v>
       </c>
     </row>
-    <row r="13" spans="1:74">
+    <row r="13" spans="1:128">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>-2.198591547393395E-05</v>
@@ -2957,39 +4775,201 @@
         <v>-0.01159890053449843</v>
       </c>
       <c r="BN13">
+        <v>-0.00104632790927576</v>
+      </c>
+      <c r="BO13">
+        <v>-0.100977203882066</v>
+      </c>
+      <c r="BP13">
+        <v>-0.03768881514125524</v>
+      </c>
+      <c r="BQ13">
+        <v>-0.0008043418544872073</v>
+      </c>
+      <c r="BR13">
+        <v>-8.740105968292497E-06</v>
+      </c>
+      <c r="BS13">
+        <v>-0.6882129943567303</v>
+      </c>
+      <c r="BT13">
+        <v>-0.007559323017677515</v>
+      </c>
+      <c r="BU13">
+        <v>-0.7301096777116897</v>
+      </c>
+      <c r="BV13">
+        <v>-2.426833447810512E-05</v>
+      </c>
+      <c r="BW13">
+        <v>-0.001973641216652059</v>
+      </c>
+      <c r="BX13">
+        <v>-2.596205558573115E-05</v>
+      </c>
+      <c r="BY13">
+        <v>-1.805200802217793E-08</v>
+      </c>
+      <c r="BZ13">
+        <v>-0.0002388435802656556</v>
+      </c>
+      <c r="CA13">
+        <v>-0.0006640989652369259</v>
+      </c>
+      <c r="CB13">
+        <v>-0.0005326967899965337</v>
+      </c>
+      <c r="CC13">
+        <v>-0.0005498004676233232</v>
+      </c>
+      <c r="CD13">
+        <v>-0.008244534725690325</v>
+      </c>
+      <c r="CE13">
+        <v>-0.0001706369010529993</v>
+      </c>
+      <c r="CF13">
+        <v>-0.00104632790927576</v>
+      </c>
+      <c r="CG13">
+        <v>-0.1026200242787995</v>
+      </c>
+      <c r="CH13">
+        <v>-0.03768881514125524</v>
+      </c>
+      <c r="CI13">
+        <v>-0.0007463094032816632</v>
+      </c>
+      <c r="CJ13">
+        <v>-8.740105968292497E-06</v>
+      </c>
+      <c r="CK13">
+        <v>-0.02930564114521486</v>
+      </c>
+      <c r="CL13">
+        <v>-0.007559323017677515</v>
+      </c>
+      <c r="CM13">
+        <v>-0.0009840695531526881</v>
+      </c>
+      <c r="CN13">
+        <v>-2.426833447810512E-05</v>
+      </c>
+      <c r="CO13">
+        <v>-0.001973641216652059</v>
+      </c>
+      <c r="CP13">
+        <v>-2.596205558573115E-05</v>
+      </c>
+      <c r="CQ13">
+        <v>-1.805200802217793E-08</v>
+      </c>
+      <c r="CR13">
+        <v>-0.0002388435802656556</v>
+      </c>
+      <c r="CS13">
+        <v>-0.0006640989652369259</v>
+      </c>
+      <c r="CT13">
+        <v>-0.0004504674023259646</v>
+      </c>
+      <c r="CU13">
+        <v>-5.008491788332091E-05</v>
+      </c>
+      <c r="CV13">
+        <v>-0.008244534725690325</v>
+      </c>
+      <c r="CW13">
+        <v>-0.0001706369010529993</v>
+      </c>
+      <c r="CX13">
+        <v>-0.00104632790927576</v>
+      </c>
+      <c r="CY13">
+        <v>-0.10617015084596</v>
+      </c>
+      <c r="CZ13">
+        <v>-0.03768881514125524</v>
+      </c>
+      <c r="DA13">
+        <v>-0.0007463007562348848</v>
+      </c>
+      <c r="DB13">
+        <v>-8.740105968292497E-06</v>
+      </c>
+      <c r="DC13">
+        <v>-0.01398731128155416</v>
+      </c>
+      <c r="DD13">
+        <v>-0.001631001776432527</v>
+      </c>
+      <c r="DE13">
+        <v>-0.0005269155965018963</v>
+      </c>
+      <c r="DF13">
+        <v>-2.426833447810512E-05</v>
+      </c>
+      <c r="DG13">
+        <v>-0.001973641216652059</v>
+      </c>
+      <c r="DH13">
+        <v>-2.596205558573115E-05</v>
+      </c>
+      <c r="DI13">
+        <v>-1.805200802217793E-08</v>
+      </c>
+      <c r="DJ13">
+        <v>-0.0002388435802656556</v>
+      </c>
+      <c r="DK13">
+        <v>-0.0006640989652369259</v>
+      </c>
+      <c r="DL13">
+        <v>-0.0004116664264550876</v>
+      </c>
+      <c r="DM13">
+        <v>-5.008349359697691E-05</v>
+      </c>
+      <c r="DN13">
+        <v>-0.008244534725690325</v>
+      </c>
+      <c r="DO13">
+        <v>-0.0001706369010529993</v>
+      </c>
+      <c r="DP13">
         <v>-0.02924557099437919</v>
       </c>
-      <c r="BO13">
+      <c r="DQ13">
         <v>-0.04649384840491339</v>
       </c>
-      <c r="BP13">
+      <c r="DR13">
         <v>-5.221649733322945E-05</v>
       </c>
-      <c r="BQ13">
+      <c r="DS13">
         <v>-0.1027190717870815</v>
       </c>
-      <c r="BR13">
+      <c r="DT13">
         <v>-1.809107911098898E-08</v>
       </c>
-      <c r="BS13">
+      <c r="DU13">
         <v>-0.0005499561631202159</v>
       </c>
-      <c r="BT13">
+      <c r="DV13">
         <v>-7.883193064156795E-05</v>
       </c>
-      <c r="BU13">
+      <c r="DW13">
         <v>-6.473777634589058</v>
       </c>
-      <c r="BV13">
+      <c r="DX13">
         <v>-0.0001055316834483736</v>
       </c>
     </row>
-    <row r="14" spans="1:74">
+    <row r="14" spans="1:128">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C14">
         <v>7.872391165427641E-05</v>
@@ -3181,39 +5161,201 @@
         <v>0.001838775818162419</v>
       </c>
       <c r="BN14">
+        <v>0.006693160844100156</v>
+      </c>
+      <c r="BO14">
+        <v>0.0209067706435545</v>
+      </c>
+      <c r="BP14">
+        <v>0.002504656727849692</v>
+      </c>
+      <c r="BQ14">
+        <v>0.0002974891849813579</v>
+      </c>
+      <c r="BR14">
+        <v>4.531752859110249E-06</v>
+      </c>
+      <c r="BS14">
+        <v>0.1742976009585308</v>
+      </c>
+      <c r="BT14">
+        <v>0.0006562015742771698</v>
+      </c>
+      <c r="BU14">
+        <v>0.2193737183154142</v>
+      </c>
+      <c r="BV14">
+        <v>3.602535266610791E-06</v>
+      </c>
+      <c r="BW14">
+        <v>0.001368943157911943</v>
+      </c>
+      <c r="BX14">
+        <v>-1.421314405380163E-05</v>
+      </c>
+      <c r="BY14">
+        <v>1.489106313771683E-10</v>
+      </c>
+      <c r="BZ14">
+        <v>2.139989772621012E-05</v>
+      </c>
+      <c r="CA14">
+        <v>5.46225441879639E-05</v>
+      </c>
+      <c r="CB14">
+        <v>8.992121696459838E-05</v>
+      </c>
+      <c r="CC14">
+        <v>-3.025946595737156E-05</v>
+      </c>
+      <c r="CD14">
+        <v>0.0003090127212422483</v>
+      </c>
+      <c r="CE14">
+        <v>0.0001440492509035513</v>
+      </c>
+      <c r="CF14">
+        <v>0.006693160844100156</v>
+      </c>
+      <c r="CG14">
+        <v>0.02163117169623513</v>
+      </c>
+      <c r="CH14">
+        <v>0.002504656727849692</v>
+      </c>
+      <c r="CI14">
+        <v>0.0002998898179451194</v>
+      </c>
+      <c r="CJ14">
+        <v>4.531752859110249E-06</v>
+      </c>
+      <c r="CK14">
+        <v>0.002236496936708858</v>
+      </c>
+      <c r="CL14">
+        <v>0.0006562015742771698</v>
+      </c>
+      <c r="CM14">
+        <v>0.0002462567616934144</v>
+      </c>
+      <c r="CN14">
+        <v>3.602535266610791E-06</v>
+      </c>
+      <c r="CO14">
+        <v>0.001368943157911943</v>
+      </c>
+      <c r="CP14">
+        <v>-1.421314405380163E-05</v>
+      </c>
+      <c r="CQ14">
+        <v>1.489106313771683E-10</v>
+      </c>
+      <c r="CR14">
+        <v>2.139989772621012E-05</v>
+      </c>
+      <c r="CS14">
+        <v>5.46225441879639E-05</v>
+      </c>
+      <c r="CT14">
+        <v>8.315413216965098E-05</v>
+      </c>
+      <c r="CU14">
+        <v>-2.093589190333147E-06</v>
+      </c>
+      <c r="CV14">
+        <v>0.0003090127212422483</v>
+      </c>
+      <c r="CW14">
+        <v>0.0001440492509035513</v>
+      </c>
+      <c r="CX14">
+        <v>0.006693160844100156</v>
+      </c>
+      <c r="CY14">
+        <v>0.02348311147151407</v>
+      </c>
+      <c r="CZ14">
+        <v>0.002504656727849692</v>
+      </c>
+      <c r="DA14">
+        <v>0.0002998892730168302</v>
+      </c>
+      <c r="DB14">
+        <v>4.531752859110249E-06</v>
+      </c>
+      <c r="DC14">
+        <v>-0.0006676969342530551</v>
+      </c>
+      <c r="DD14">
+        <v>0.000453005297460282</v>
+      </c>
+      <c r="DE14">
+        <v>0.0001484530708349972</v>
+      </c>
+      <c r="DF14">
+        <v>3.602535266610791E-06</v>
+      </c>
+      <c r="DG14">
+        <v>0.001368943157911943</v>
+      </c>
+      <c r="DH14">
+        <v>-1.421314405380163E-05</v>
+      </c>
+      <c r="DI14">
+        <v>1.489106313771683E-10</v>
+      </c>
+      <c r="DJ14">
+        <v>2.139989772621012E-05</v>
+      </c>
+      <c r="DK14">
+        <v>5.46225441879639E-05</v>
+      </c>
+      <c r="DL14">
+        <v>7.966691965345423E-05</v>
+      </c>
+      <c r="DM14">
+        <v>-2.094253194069617E-06</v>
+      </c>
+      <c r="DN14">
+        <v>0.0003090127212422483</v>
+      </c>
+      <c r="DO14">
+        <v>0.0001440492509035513</v>
+      </c>
+      <c r="DP14">
         <v>0.004818513517970053</v>
       </c>
-      <c r="BO14">
+      <c r="DQ14">
         <v>0.01152284577610678</v>
       </c>
-      <c r="BP14">
+      <c r="DR14">
         <v>2.504786608163996E-06</v>
       </c>
-      <c r="BQ14">
+      <c r="DS14">
         <v>0.02170458919030174</v>
       </c>
-      <c r="BR14">
+      <c r="DT14">
         <v>1.417749752716615E-10</v>
       </c>
-      <c r="BS14">
+      <c r="DU14">
         <v>4.376743201412978E-05</v>
       </c>
-      <c r="BT14">
+      <c r="DV14">
         <v>3.079913581544718E-05</v>
       </c>
-      <c r="BU14">
+      <c r="DW14">
         <v>-0.4488150496136373</v>
       </c>
-      <c r="BV14">
+      <c r="DX14">
         <v>2.215727034544543E-05</v>
       </c>
     </row>
-    <row r="15" spans="1:74">
+    <row r="15" spans="1:128">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>5.492510552039874E-06</v>
@@ -3405,39 +5547,201 @@
         <v>0.001612401798258867</v>
       </c>
       <c r="BN15">
+        <v>0.0008643332146461701</v>
+      </c>
+      <c r="BO15">
+        <v>0.01104853115742133</v>
+      </c>
+      <c r="BP15">
+        <v>0.003771481064167427</v>
+      </c>
+      <c r="BQ15">
+        <v>0.0001877915319169785</v>
+      </c>
+      <c r="BR15">
+        <v>2.410374488522054E-06</v>
+      </c>
+      <c r="BS15">
+        <v>0.1127500032620089</v>
+      </c>
+      <c r="BT15">
+        <v>0.000944530323702536</v>
+      </c>
+      <c r="BU15">
+        <v>0.1347179649989682</v>
+      </c>
+      <c r="BV15">
+        <v>3.945595962557311E-06</v>
+      </c>
+      <c r="BW15">
+        <v>0.0005373755072105252</v>
+      </c>
+      <c r="BX15">
+        <v>-2.084814877775085E-05</v>
+      </c>
+      <c r="BY15">
+        <v>1.500605892307982E-09</v>
+      </c>
+      <c r="BZ15">
+        <v>3.613274694113934E-05</v>
+      </c>
+      <c r="CA15">
+        <v>9.757063669653656E-05</v>
+      </c>
+      <c r="CB15">
+        <v>8.619602270918352E-05</v>
+      </c>
+      <c r="CC15">
+        <v>2.538317935852385E-05</v>
+      </c>
+      <c r="CD15">
+        <v>0.0008914160419718614</v>
+      </c>
+      <c r="CE15">
+        <v>7.533542789222229E-05</v>
+      </c>
+      <c r="CF15">
+        <v>0.0008643332146461701</v>
+      </c>
+      <c r="CG15">
+        <v>0.01134313648103152</v>
+      </c>
+      <c r="CH15">
+        <v>0.003771481064167427</v>
+      </c>
+      <c r="CI15">
+        <v>0.0001846883723611134</v>
+      </c>
+      <c r="CJ15">
+        <v>2.410374488522054E-06</v>
+      </c>
+      <c r="CK15">
+        <v>0.002869888981283811</v>
+      </c>
+      <c r="CL15">
+        <v>0.000944530323702536</v>
+      </c>
+      <c r="CM15">
+        <v>0.0001778910924123869</v>
+      </c>
+      <c r="CN15">
+        <v>3.945595962557311E-06</v>
+      </c>
+      <c r="CO15">
+        <v>0.0005373755072105252</v>
+      </c>
+      <c r="CP15">
+        <v>-2.084814877775085E-05</v>
+      </c>
+      <c r="CQ15">
+        <v>1.500605892307982E-09</v>
+      </c>
+      <c r="CR15">
+        <v>3.613274694113934E-05</v>
+      </c>
+      <c r="CS15">
+        <v>9.757063669653656E-05</v>
+      </c>
+      <c r="CT15">
+        <v>7.358255064536634E-05</v>
+      </c>
+      <c r="CU15">
+        <v>2.644500274141904E-06</v>
+      </c>
+      <c r="CV15">
+        <v>0.0008914160419718614</v>
+      </c>
+      <c r="CW15">
+        <v>7.533542789222229E-05</v>
+      </c>
+      <c r="CX15">
+        <v>0.0008643332146461701</v>
+      </c>
+      <c r="CY15">
+        <v>0.01201655322908692</v>
+      </c>
+      <c r="CZ15">
+        <v>0.003771481064167427</v>
+      </c>
+      <c r="DA15">
+        <v>0.000184687488582718</v>
+      </c>
+      <c r="DB15">
+        <v>2.410374488522054E-06</v>
+      </c>
+      <c r="DC15">
+        <v>0.0006737858056532714</v>
+      </c>
+      <c r="DD15">
+        <v>0.0003552756078655408</v>
+      </c>
+      <c r="DE15">
+        <v>9.922599628339373E-05</v>
+      </c>
+      <c r="DF15">
+        <v>3.945595962557311E-06</v>
+      </c>
+      <c r="DG15">
+        <v>0.0005373755072105252</v>
+      </c>
+      <c r="DH15">
+        <v>-2.084814877775085E-05</v>
+      </c>
+      <c r="DI15">
+        <v>1.500605892307982E-09</v>
+      </c>
+      <c r="DJ15">
+        <v>3.613274694113934E-05</v>
+      </c>
+      <c r="DK15">
+        <v>9.757063669653656E-05</v>
+      </c>
+      <c r="DL15">
+        <v>6.753084233931184E-05</v>
+      </c>
+      <c r="DM15">
+        <v>2.643890248888143E-06</v>
+      </c>
+      <c r="DN15">
+        <v>0.0008914160419718614</v>
+      </c>
+      <c r="DO15">
+        <v>7.533542789222229E-05</v>
+      </c>
+      <c r="DP15">
         <v>0.004705685493330141</v>
       </c>
-      <c r="BO15">
+      <c r="DQ15">
         <v>0.004878654631786787</v>
       </c>
-      <c r="BP15">
+      <c r="DR15">
         <v>6.028826010859509E-06</v>
       </c>
-      <c r="BQ15">
+      <c r="DS15">
         <v>0.01138802431732351</v>
       </c>
-      <c r="BR15">
+      <c r="DT15">
         <v>1.492307389145595E-09</v>
       </c>
-      <c r="BS15">
+      <c r="DU15">
         <v>7.936649646704667E-05</v>
       </c>
-      <c r="BT15">
+      <c r="DV15">
         <v>1.232364657294273E-05</v>
       </c>
-      <c r="BU15">
+      <c r="DW15">
         <v>0.2711416662348193</v>
       </c>
-      <c r="BV15">
+      <c r="DX15">
         <v>1.856114109775276E-05</v>
       </c>
     </row>
-    <row r="16" spans="1:74">
+    <row r="16" spans="1:128">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <v>0.0004350765840229042</v>
@@ -3629,39 +5933,204 @@
         <v>0.01643731931489504</v>
       </c>
       <c r="BN16">
+        <v>0.02760429068529268</v>
+      </c>
+      <c r="BO16">
+        <v>0.1776326049121358</v>
+      </c>
+      <c r="BP16">
+        <v>0.03468947752728003</v>
+      </c>
+      <c r="BQ16">
+        <v>0.001995995699355791</v>
+      </c>
+      <c r="BR16">
+        <v>2.242801671300862E-05</v>
+      </c>
+      <c r="BS16">
+        <v>1.186019953611035</v>
+      </c>
+      <c r="BT16">
+        <v>0.006944878799651908</v>
+      </c>
+      <c r="BU16">
+        <v>1.489505848741268</v>
+      </c>
+      <c r="BV16">
+        <v>2.98277811090804E-05</v>
+      </c>
+      <c r="BW16">
+        <v>0.00909551972546039</v>
+      </c>
+      <c r="BX16">
+        <v>1.047266166189001E-05</v>
+      </c>
+      <c r="BY16">
+        <v>1.232173546664105E-08</v>
+      </c>
+      <c r="BZ16">
+        <v>0.00027400028201456</v>
+      </c>
+      <c r="CA16">
+        <v>0.0005929368386987813</v>
+      </c>
+      <c r="CB16">
+        <v>0.0006718464461157507</v>
+      </c>
+      <c r="CC16">
+        <v>0.00019458284151007</v>
+      </c>
+      <c r="CD16">
+        <v>0.005805102509820544</v>
+      </c>
+      <c r="CE16">
+        <v>0.0004997311308663114</v>
+      </c>
+      <c r="CF16">
+        <v>0.02760429068529268</v>
+      </c>
+      <c r="CG16">
+        <v>0.1820698956301594</v>
+      </c>
+      <c r="CH16">
+        <v>0.03468947752728003</v>
+      </c>
+      <c r="CI16">
+        <v>0.001971053828459281</v>
+      </c>
+      <c r="CJ16">
+        <v>2.242801671300862E-05</v>
+      </c>
+      <c r="CK16">
+        <v>0.02861257890517663</v>
+      </c>
+      <c r="CL16">
+        <v>0.006944878799651908</v>
+      </c>
+      <c r="CM16">
+        <v>0.001857149342305228</v>
+      </c>
+      <c r="CN16">
+        <v>2.98277811090804E-05</v>
+      </c>
+      <c r="CO16">
+        <v>0.00909551972546039</v>
+      </c>
+      <c r="CP16">
+        <v>1.047266166189001E-05</v>
+      </c>
+      <c r="CQ16">
+        <v>1.232173546664105E-08</v>
+      </c>
+      <c r="CR16">
+        <v>0.00027400028201456</v>
+      </c>
+      <c r="CS16">
+        <v>0.0005929368386987813</v>
+      </c>
+      <c r="CT16">
+        <v>0.0005995374007521057</v>
+      </c>
+      <c r="CU16">
+        <v>2.095864906603725E-05</v>
+      </c>
+      <c r="CV16">
+        <v>0.005805102509820544</v>
+      </c>
+      <c r="CW16">
+        <v>0.0004997311308663114</v>
+      </c>
+      <c r="CX16">
+        <v>0.02760429068529268</v>
+      </c>
+      <c r="CY16">
+        <v>0.1930921699370149</v>
+      </c>
+      <c r="CZ16">
+        <v>0.03468947752728003</v>
+      </c>
+      <c r="DA16">
+        <v>0.001971046259825754</v>
+      </c>
+      <c r="DB16">
+        <v>2.242801671300862E-05</v>
+      </c>
+      <c r="DC16">
+        <v>0.005083275575803493</v>
+      </c>
+      <c r="DD16">
+        <v>0.002513127448020427</v>
+      </c>
+      <c r="DE16">
+        <v>0.001072562475158656</v>
+      </c>
+      <c r="DF16">
+        <v>2.98277811090804E-05</v>
+      </c>
+      <c r="DG16">
+        <v>0.00909551972546039</v>
+      </c>
+      <c r="DH16">
+        <v>1.047266166189001E-05</v>
+      </c>
+      <c r="DI16">
+        <v>1.232173546664105E-08</v>
+      </c>
+      <c r="DJ16">
+        <v>0.00027400028201456</v>
+      </c>
+      <c r="DK16">
+        <v>0.0005929368386987813</v>
+      </c>
+      <c r="DL16">
+        <v>0.0005642242761222568</v>
+      </c>
+      <c r="DM16">
+        <v>2.095467157745979E-05</v>
+      </c>
+      <c r="DN16">
+        <v>0.005805102509820544</v>
+      </c>
+      <c r="DO16">
+        <v>0.0004997311308663114</v>
+      </c>
+      <c r="DP16">
         <v>0.03631571441567157</v>
       </c>
-      <c r="BO16">
+      <c r="DQ16">
         <v>0.08151795844422337</v>
       </c>
-      <c r="BP16">
+      <c r="DR16">
         <v>4.199754743280298E-05</v>
       </c>
-      <c r="BQ16">
+      <c r="DS16">
         <v>0.1826126440602099</v>
       </c>
-      <c r="BR16">
+      <c r="DT16">
         <v>1.231390307881854E-08</v>
       </c>
-      <c r="BS16">
+      <c r="DU16">
         <v>0.0004793745743702594</v>
       </c>
-      <c r="BT16">
+      <c r="DV16">
         <v>0.0001901071348833808</v>
       </c>
-      <c r="BU16">
+      <c r="DW16">
         <v>1.777357055323549</v>
       </c>
-      <c r="BV16">
+      <c r="DX16">
         <v>0.0001623095685052265</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
     <mergeCell ref="C1:W1"/>
     <mergeCell ref="X1:AR1"/>
     <mergeCell ref="AS1:BM1"/>
-    <mergeCell ref="BN1:BV1"/>
+    <mergeCell ref="BN1:CE1"/>
+    <mergeCell ref="CF1:CW1"/>
+    <mergeCell ref="CX1:DO1"/>
+    <mergeCell ref="DP1:DX1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="M2:S2"/>
     <mergeCell ref="T2:V2"/>
@@ -3671,8 +6140,8 @@
     <mergeCell ref="AS2:BB2"/>
     <mergeCell ref="BC2:BI2"/>
     <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="BT2:BV2"/>
+    <mergeCell ref="DP2:DU2"/>
+    <mergeCell ref="DV2:DX2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
